--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N2">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q2">
-        <v>23.59758546428633</v>
+        <v>48.01410141973867</v>
       </c>
       <c r="R2">
-        <v>212.378269178577</v>
+        <v>432.126912777648</v>
       </c>
       <c r="S2">
-        <v>0.0003369243260847575</v>
+        <v>0.0007453862223379447</v>
       </c>
       <c r="T2">
-        <v>0.0003369243260847575</v>
+        <v>0.0007453862223379446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N3">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O3">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P3">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q3">
-        <v>9549.034668687536</v>
+        <v>14016.20190987694</v>
       </c>
       <c r="R3">
-        <v>85941.31201818782</v>
+        <v>126145.8171888925</v>
       </c>
       <c r="S3">
-        <v>0.1363403080106118</v>
+        <v>0.2175919882743882</v>
       </c>
       <c r="T3">
-        <v>0.1363403080106118</v>
+        <v>0.2175919882743881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N4">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q4">
-        <v>10.33332046772667</v>
+        <v>9.470624260520667</v>
       </c>
       <c r="R4">
-        <v>92.99988420954</v>
+        <v>85.235618344686</v>
       </c>
       <c r="S4">
-        <v>0.0001475382742050355</v>
+        <v>0.0001470249912420419</v>
       </c>
       <c r="T4">
-        <v>0.0001475382742050356</v>
+        <v>0.0001470249912420419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N5">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O5">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P5">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q5">
-        <v>12099.06344222029</v>
+        <v>7754.670424746967</v>
       </c>
       <c r="R5">
-        <v>108891.5709799826</v>
+        <v>69792.0338227227</v>
       </c>
       <c r="S5">
-        <v>0.1727494028020922</v>
+        <v>0.1203859766706301</v>
       </c>
       <c r="T5">
-        <v>0.1727494028020922</v>
+        <v>0.1203859766706301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N6">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q6">
-        <v>9.638635186899776</v>
+        <v>19.40249272414934</v>
       </c>
       <c r="R6">
-        <v>86.74771668209799</v>
+        <v>174.622434517344</v>
       </c>
       <c r="S6">
-        <v>0.00013761961661874</v>
+        <v>0.0003012104845858396</v>
       </c>
       <c r="T6">
-        <v>0.0001376196166187401</v>
+        <v>0.0003012104845858395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N7">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O7">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P7">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q7">
-        <v>3900.384710877924</v>
+        <v>5663.945539649248</v>
       </c>
       <c r="R7">
-        <v>35103.46239790131</v>
+        <v>50975.50985684322</v>
       </c>
       <c r="S7">
-        <v>0.05568936246349049</v>
+        <v>0.08792889681345582</v>
       </c>
       <c r="T7">
-        <v>0.0556893624634905</v>
+        <v>0.08792889681345581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N8">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q8">
-        <v>4.220732939328889</v>
+        <v>3.827078147345334</v>
       </c>
       <c r="R8">
-        <v>37.98659645396</v>
+        <v>34.443703326108</v>
       </c>
       <c r="S8">
-        <v>6.026326732958953E-05</v>
+        <v>5.941278163062965E-05</v>
       </c>
       <c r="T8">
-        <v>6.026326732958954E-05</v>
+        <v>5.941278163062964E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N9">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O9">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P9">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q9">
-        <v>4941.965727773841</v>
+        <v>3133.66140457384</v>
       </c>
       <c r="R9">
-        <v>44477.69154996456</v>
+        <v>28202.95264116456</v>
       </c>
       <c r="S9">
-        <v>0.07056096798056564</v>
+        <v>0.04864795898234318</v>
       </c>
       <c r="T9">
-        <v>0.07056096798056564</v>
+        <v>0.04864795898234318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H10">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N10">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q10">
-        <v>19.62225342275145</v>
+        <v>36.17266749835201</v>
       </c>
       <c r="R10">
-        <v>176.600280804763</v>
+        <v>325.554007485168</v>
       </c>
       <c r="S10">
-        <v>0.000280164871983643</v>
+        <v>0.0005615560258594944</v>
       </c>
       <c r="T10">
-        <v>0.0002801648719836431</v>
+        <v>0.0005615560258594944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H11">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I11">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J11">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N11">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O11">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P11">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q11">
-        <v>7940.370784765501</v>
+        <v>10559.46891192501</v>
       </c>
       <c r="R11">
-        <v>71463.33706288949</v>
+        <v>95035.2202073251</v>
       </c>
       <c r="S11">
-        <v>0.1133719413610829</v>
+        <v>0.16392856284756</v>
       </c>
       <c r="T11">
-        <v>0.1133719413610829</v>
+        <v>0.16392856284756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N12">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q12">
-        <v>8.592533046362224</v>
+        <v>7.134940199814001</v>
       </c>
       <c r="R12">
-        <v>77.33279741726001</v>
+        <v>64.214461798326</v>
       </c>
       <c r="S12">
-        <v>0.0001226834588813367</v>
+        <v>0.0001107650870242079</v>
       </c>
       <c r="T12">
-        <v>0.0001226834588813367</v>
+        <v>0.0001107650870242079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N13">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O13">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P13">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q13">
-        <v>10060.81276410684</v>
+        <v>5842.181911965539</v>
       </c>
       <c r="R13">
-        <v>90547.31487696155</v>
+        <v>52579.63720768985</v>
       </c>
       <c r="S13">
-        <v>0.1436474322994528</v>
+        <v>0.09069589509761912</v>
       </c>
       <c r="T13">
-        <v>0.1436474322994528</v>
+        <v>0.09069589509761913</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H14">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I14">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J14">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N14">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q14">
-        <v>4.073719696335112</v>
+        <v>8.610709182768002</v>
       </c>
       <c r="R14">
-        <v>36.66347726701601</v>
+        <v>77.496382644912</v>
       </c>
       <c r="S14">
-        <v>5.816422470100462E-05</v>
+        <v>0.0001336753953444918</v>
       </c>
       <c r="T14">
-        <v>5.816422470100462E-05</v>
+        <v>0.0001336753953444918</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H15">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I15">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J15">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N15">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O15">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P15">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q15">
-        <v>1648.477581305614</v>
+        <v>2513.62485028809</v>
       </c>
       <c r="R15">
-        <v>14836.29823175052</v>
+        <v>22622.62365259281</v>
       </c>
       <c r="S15">
-        <v>0.02353682324777725</v>
+        <v>0.03902231378135868</v>
       </c>
       <c r="T15">
-        <v>0.02353682324777725</v>
+        <v>0.03902231378135868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H16">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I16">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J16">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N16">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q16">
-        <v>1.783871116035556</v>
+        <v>1.698434186526</v>
       </c>
       <c r="R16">
-        <v>16.05484004432001</v>
+        <v>15.285907678734</v>
       </c>
       <c r="S16">
-        <v>2.546996066618636E-05</v>
+        <v>2.636703394940107E-05</v>
       </c>
       <c r="T16">
-        <v>2.546996066618636E-05</v>
+        <v>2.636703394940106E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N17">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O17">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P17">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q17">
-        <v>2088.69645271021</v>
+        <v>1390.700020645551</v>
       </c>
       <c r="R17">
-        <v>18798.26807439189</v>
+        <v>12516.30018580996</v>
       </c>
       <c r="S17">
-        <v>0.02982223099859401</v>
+        <v>0.02158967062055935</v>
       </c>
       <c r="T17">
-        <v>0.029822230998594</v>
+        <v>0.02158967062055935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H18">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I18">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J18">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N18">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q18">
-        <v>19.29375623107155</v>
+        <v>29.48872431565867</v>
       </c>
       <c r="R18">
-        <v>173.643806079644</v>
+        <v>265.398518840928</v>
       </c>
       <c r="S18">
-        <v>0.000275474616910937</v>
+        <v>0.0004577923603539043</v>
       </c>
       <c r="T18">
-        <v>0.0002754746169109371</v>
+        <v>0.0004577923603539042</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H19">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I19">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J19">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N19">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O19">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P19">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q19">
-        <v>7807.440613724688</v>
+        <v>8608.302599682795</v>
       </c>
       <c r="R19">
-        <v>70266.96552352219</v>
+        <v>77474.72339714515</v>
       </c>
       <c r="S19">
-        <v>0.1114739756407324</v>
+        <v>0.1336380347812076</v>
       </c>
       <c r="T19">
-        <v>0.1114739756407324</v>
+        <v>0.1336380347812076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H20">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I20">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J20">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N20">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q20">
-        <v>8.448684992097778</v>
+        <v>5.816554296710668</v>
       </c>
       <c r="R20">
-        <v>76.03816492888001</v>
+        <v>52.348988670396</v>
       </c>
       <c r="S20">
-        <v>0.0001206296085492761</v>
+        <v>9.029804382564873E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001206296085492761</v>
+        <v>9.029804382564871E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H21">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I21">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J21">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N21">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O21">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P21">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q21">
-        <v>9892.384160733778</v>
+        <v>4762.670372919782</v>
       </c>
       <c r="R21">
-        <v>89031.45744660401</v>
+        <v>42864.03335627804</v>
       </c>
       <c r="S21">
-        <v>0.1412426229696699</v>
+        <v>0.07393721370472436</v>
       </c>
       <c r="T21">
-        <v>0.1412426229696699</v>
+        <v>0.07393721370472436</v>
       </c>
     </row>
   </sheetData>
